--- a/data/trans_orig/Q5418_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1188</v>
+        <v>1057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6301</v>
+        <v>6338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02450386264074394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009917053245749003</v>
+        <v>0.008824210487505812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05259435273429484</v>
+        <v>0.05289965543606959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8450</v>
+        <v>8830</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02318815674326688</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1133304524601023</v>
+        <v>0.1184237525909765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>4665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1961</v>
+        <v>2065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11366</v>
+        <v>11297</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02399916926421394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01009009926014597</v>
+        <v>0.01062404865203597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05847792373757834</v>
+        <v>0.05811914286975925</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4064</v>
+        <v>3903</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009347786509715758</v>
+        <v>0.009347786509715759</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03392031419669026</v>
+        <v>0.03257251830648674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>5388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2586</v>
+        <v>2539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9933</v>
+        <v>10224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07225878930288222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03467857265966782</v>
+        <v>0.03405277078831016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1332170070733439</v>
+        <v>0.1371226074529105</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>6508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3213</v>
+        <v>3242</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11329</v>
+        <v>11186</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03347990181105722</v>
+        <v>0.03347990181105723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0165293235463008</v>
+        <v>0.01667968394411065</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05828387723591934</v>
+        <v>0.05754832225621693</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>115756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111685</v>
+        <v>111930</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117891</v>
+        <v>118156</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9661483508495403</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9321728707954263</v>
+        <v>0.9342162046439074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9839688679644901</v>
+        <v>0.9861766713557125</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -904,19 +904,19 @@
         <v>67443</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60904</v>
+        <v>61158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70940</v>
+        <v>71299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.904553053953851</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8168614097645175</v>
+        <v>0.820262818223919</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9514653511408374</v>
+        <v>0.9562791603458833</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>284</v>
@@ -925,19 +925,19 @@
         <v>183199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>175922</v>
+        <v>176303</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>187360</v>
+        <v>187667</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9425209289247288</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9050826144535359</v>
+        <v>0.9070421499977969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9639314400218091</v>
+        <v>0.9655072134115861</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>3555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1285</v>
+        <v>1328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7517</v>
+        <v>7281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03394784448204952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01226984907417161</v>
+        <v>0.0126826794513383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0717842573319955</v>
+        <v>0.06952771500855838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>1636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1071,19 +1071,19 @@
         <v>5191</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2513</v>
+        <v>2225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9358</v>
+        <v>9391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03242233709599823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01569376306702901</v>
+        <v>0.01390064952864415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05845263367513956</v>
+        <v>0.05865422193779384</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>4604</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10483</v>
+        <v>10458</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04396720940334752</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01695399177163127</v>
+        <v>0.01698794416267389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1001088358570832</v>
+        <v>0.099866407090742</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1121,19 +1121,19 @@
         <v>3537</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1326</v>
+        <v>1402</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7372</v>
+        <v>7454</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06385759847287692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02393608960870912</v>
+        <v>0.02530510392500367</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.133105257691439</v>
+        <v>0.1345808685162678</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1142,19 +1142,19 @@
         <v>8141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4438</v>
+        <v>4410</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14051</v>
+        <v>14359</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05084806520271375</v>
+        <v>0.05084806520271376</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02771767202631819</v>
+        <v>0.02754795128208629</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08776538606725488</v>
+        <v>0.08968711833958894</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>96556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89703</v>
+        <v>90371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100272</v>
+        <v>100169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.922084946114603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8566420309472885</v>
+        <v>0.8630158492858807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9575685627760421</v>
+        <v>0.956588595156829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1192,19 +1192,19 @@
         <v>50212</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46069</v>
+        <v>46323</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53004</v>
+        <v>52850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9066043189005386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8317993164643324</v>
+        <v>0.8363825728302156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9570169491842014</v>
+        <v>0.9542237271905855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -1213,19 +1213,19 @@
         <v>146768</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140658</v>
+        <v>140132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151683</v>
+        <v>151940</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9167295977012877</v>
+        <v>0.916729597701288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8785633344059377</v>
+        <v>0.8752791944423317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9474253836360268</v>
+        <v>0.9490292757897445</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>4729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2088</v>
+        <v>2297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8500</v>
+        <v>8504</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04204755965221024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01856844919153207</v>
+        <v>0.02042694020346733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07557894458358319</v>
+        <v>0.07561335167128133</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1338,19 +1338,19 @@
         <v>3527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1537</v>
+        <v>1324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6989</v>
+        <v>6302</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06083947417968184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02650855327029843</v>
+        <v>0.02284377309700272</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1205703152708008</v>
+        <v>0.1087120102192611</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1359,19 +1359,19 @@
         <v>8256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4660</v>
+        <v>4730</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12793</v>
+        <v>13311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04843904558096306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02734313616701511</v>
+        <v>0.02775430817693336</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07506031622828443</v>
+        <v>0.07809611405000581</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>9360</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5481</v>
+        <v>5357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14826</v>
+        <v>15230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08322479694295945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04873155766527484</v>
+        <v>0.04763420525098214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1318214680339421</v>
+        <v>0.1354125272422285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1409,19 +1409,19 @@
         <v>9533</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5929</v>
+        <v>5597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14775</v>
+        <v>14169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1644395323646675</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1022738336339231</v>
+        <v>0.09655252859558147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2548795586264484</v>
+        <v>0.2444189203048818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1430,19 +1430,19 @@
         <v>18893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13096</v>
+        <v>13202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26008</v>
+        <v>25789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1108474661444605</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07683879240136547</v>
+        <v>0.07745614805113467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.152591383562894</v>
+        <v>0.1513056002244974</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>98381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91962</v>
+        <v>92080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103443</v>
+        <v>103556</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8747276434048303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8176488306452254</v>
+        <v>0.8186975955087804</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9197329565305334</v>
+        <v>0.9207314168554099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -1480,19 +1480,19 @@
         <v>44911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39551</v>
+        <v>39831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49154</v>
+        <v>49660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7747209934556507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6822591197869853</v>
+        <v>0.6871050762404997</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8479296115034068</v>
+        <v>0.8566466272207545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -1501,19 +1501,19 @@
         <v>143292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135274</v>
+        <v>135345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150085</v>
+        <v>149820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8407134882745766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7936720075552727</v>
+        <v>0.7940858977586354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8805688557662075</v>
+        <v>0.8790162092264304</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>28021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19778</v>
+        <v>19897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36029</v>
+        <v>36406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1086127540030294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07666178197287589</v>
+        <v>0.07712106697871181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1396531496180065</v>
+        <v>0.1411144954351704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1626,19 +1626,19 @@
         <v>10011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6082</v>
+        <v>6141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14559</v>
+        <v>14710</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07648903961633577</v>
+        <v>0.07648903961633574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04647065423441017</v>
+        <v>0.04692334073783543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1112386507762735</v>
+        <v>0.1123908988005877</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -1647,19 +1647,19 @@
         <v>38032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28674</v>
+        <v>28029</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47454</v>
+        <v>48196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0978011062282101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07373725864155048</v>
+        <v>0.07207889551316482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.122030871795048</v>
+        <v>0.1239387822778699</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>27202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19684</v>
+        <v>19779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36138</v>
+        <v>36428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1054380331728689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07629685168774937</v>
+        <v>0.07666700369927013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1400758504819261</v>
+        <v>0.1411981264445165</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1697,19 +1697,19 @@
         <v>6670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3797</v>
+        <v>3673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10677</v>
+        <v>10680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05096554857287734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0290093587278571</v>
+        <v>0.02806079913970085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08157770129794824</v>
+        <v>0.08160232340573621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1718,19 +1718,19 @@
         <v>33873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25435</v>
+        <v>25994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43322</v>
+        <v>44346</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08710462036060931</v>
+        <v>0.08710462036060934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06540644145505783</v>
+        <v>0.06684447958491105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1114042278203378</v>
+        <v>0.1140369977979452</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>202769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>191910</v>
+        <v>190976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213646</v>
+        <v>212818</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7859492128241016</v>
+        <v>0.7859492128241019</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7438607358349543</v>
+        <v>0.7402395398236845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8281111543661365</v>
+        <v>0.8249017312271248</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>224</v>
@@ -1768,19 +1768,19 @@
         <v>114199</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108020</v>
+        <v>108396</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119091</v>
+        <v>118826</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8725454118107869</v>
+        <v>0.8725454118107868</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8253392250167471</v>
+        <v>0.8282111646446159</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9099234898461154</v>
+        <v>0.9079014568613804</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>511</v>
@@ -1789,19 +1789,19 @@
         <v>316967</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>304605</v>
+        <v>303169</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>329578</v>
+        <v>328632</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8150942734111805</v>
+        <v>0.8150942734111806</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7833028189157367</v>
+        <v>0.7796112405004886</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8475220067947721</v>
+        <v>0.8450904918637746</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>11753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7453</v>
+        <v>7401</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16823</v>
+        <v>16950</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.117688608022928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07462681825259204</v>
+        <v>0.07411432730064754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.168459640900239</v>
+        <v>0.1697285277574212</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1914,19 +1914,19 @@
         <v>28955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21986</v>
+        <v>22896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36174</v>
+        <v>36702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1314687859330453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09982433963921543</v>
+        <v>0.1039565836239267</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.164246034214013</v>
+        <v>0.1666413209938761</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -1935,19 +1935,19 @@
         <v>40708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32201</v>
+        <v>33134</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49693</v>
+        <v>50264</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1271697862078987</v>
+        <v>0.1271697862078988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1005943361175916</v>
+        <v>0.1035099930824177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1552380215515477</v>
+        <v>0.1570216859993804</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>8853</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4927</v>
+        <v>4895</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14244</v>
+        <v>14566</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08864933472713957</v>
+        <v>0.08864933472713958</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04933524553322526</v>
+        <v>0.04901870220421115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1426331023157811</v>
+        <v>0.1458604340488655</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>72</v>
@@ -1985,19 +1985,19 @@
         <v>33475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26775</v>
+        <v>26349</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40935</v>
+        <v>42010</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1519919271483055</v>
+        <v>0.1519919271483054</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1215676137910664</v>
+        <v>0.1196340641925866</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1858622689530734</v>
+        <v>0.1907446622071725</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>86</v>
@@ -2006,19 +2006,19 @@
         <v>42328</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34242</v>
+        <v>34472</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51788</v>
+        <v>52841</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1322309495190737</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.106969635231431</v>
+        <v>0.1076882680117747</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1617825850498939</v>
+        <v>0.1650726526869815</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>79258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72294</v>
+        <v>72054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85064</v>
+        <v>84897</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7936620572499326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7239211204321094</v>
+        <v>0.721524119219351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8518012745506839</v>
+        <v>0.8501215075528821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>308</v>
@@ -2056,19 +2056,19 @@
         <v>157813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148481</v>
+        <v>149054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166529</v>
+        <v>167321</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7165392869186492</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.674167918656323</v>
+        <v>0.676767525431075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7561100041329538</v>
+        <v>0.7597087096742984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>418</v>
@@ -2077,19 +2077,19 @@
         <v>237072</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225407</v>
+        <v>224103</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248038</v>
+        <v>248251</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7405992642730275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7041579489103577</v>
+        <v>0.7000855111224662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7748580248446308</v>
+        <v>0.7755233085987332</v>
       </c>
     </row>
     <row r="23">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2661</v>
+        <v>2602</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3129487968036082</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8121688494667791</v>
+        <v>0.7942307811923641</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -2202,19 +2202,19 @@
         <v>46267</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36794</v>
+        <v>36228</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57250</v>
+        <v>56530</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1340535520374191</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1066060302013472</v>
+        <v>0.1049680226610572</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1658769682201126</v>
+        <v>0.1637912293977943</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -2223,19 +2223,19 @@
         <v>47292</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37812</v>
+        <v>38652</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57741</v>
+        <v>58151</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1357357175267015</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.108525095484548</v>
+        <v>0.1109386045378707</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1657254375412243</v>
+        <v>0.1669038286092092</v>
       </c>
     </row>
     <row r="25">
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2751</v>
+        <v>2364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3597968123493643</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8396003799107717</v>
+        <v>0.7214874782328138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -2273,19 +2273,19 @@
         <v>38328</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30275</v>
+        <v>29435</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48116</v>
+        <v>48123</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1110514188272771</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08771808196724461</v>
+        <v>0.08528367634954979</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1394099424879143</v>
+        <v>0.139431113586811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -2294,19 +2294,19 @@
         <v>39507</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31559</v>
+        <v>31258</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49230</v>
+        <v>49610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1133903905374962</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09058057816734821</v>
+        <v>0.08971559938987257</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1412983939848286</v>
+        <v>0.1423878756284195</v>
       </c>
     </row>
     <row r="26">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>486</v>
@@ -2344,19 +2344,19 @@
         <v>260542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>247362</v>
+        <v>248139</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>273156</v>
+        <v>274071</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7548950291353039</v>
+        <v>0.7548950291353037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.716706822123462</v>
+        <v>0.718957806000606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7914412698380052</v>
+        <v>0.7940932549508017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -2365,19 +2365,19 @@
         <v>261614</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>247358</v>
+        <v>247254</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>273617</v>
+        <v>272121</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7508738919358022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7099560474707458</v>
+        <v>0.7096588581548308</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7853234002244686</v>
+        <v>0.7810294060819768</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>52019</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41816</v>
+        <v>42247</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63979</v>
+        <v>63839</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0745121486163773</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05989752101404133</v>
+        <v>0.06051437838160674</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09164278191120584</v>
+        <v>0.09144214741320991</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>175</v>
@@ -2490,19 +2490,19 @@
         <v>92125</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>78606</v>
+        <v>78854</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>106500</v>
+        <v>106982</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1041927928546489</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08890284667906255</v>
+        <v>0.08918316277009954</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1204516154101971</v>
+        <v>0.1209966179133816</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>263</v>
@@ -2511,19 +2511,19 @@
         <v>144144</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>128233</v>
+        <v>127885</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>163193</v>
+        <v>163130</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09109736883868774</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08104209556659341</v>
+        <v>0.08082181218085202</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.103136175974027</v>
+        <v>0.1030962250179365</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>52318</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41738</v>
+        <v>42096</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64678</v>
+        <v>63834</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07494043812131432</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05978576665243824</v>
+        <v>0.06029769075319472</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09264482463829504</v>
+        <v>0.09143606613629632</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>187</v>
@@ -2561,19 +2561,19 @@
         <v>96931</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84763</v>
+        <v>83550</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>112128</v>
+        <v>111416</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1096282126165541</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09586678658936487</v>
+        <v>0.09449467570807997</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1268161904138019</v>
+        <v>0.1260115023268925</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>265</v>
@@ -2582,19 +2582,19 @@
         <v>149249</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>131533</v>
+        <v>131943</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>168492</v>
+        <v>168931</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09432358810980311</v>
+        <v>0.09432358810980312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08312757084342544</v>
+        <v>0.08338677655007283</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1064848368110824</v>
+        <v>0.1067623516158431</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>593794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>577887</v>
+        <v>575588</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>607769</v>
+        <v>607251</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8505474132623084</v>
+        <v>0.8505474132623086</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.827763136207895</v>
+        <v>0.8244695349151867</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8705660538755391</v>
+        <v>0.8698243475503628</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1311</v>
@@ -2632,19 +2632,19 @@
         <v>695120</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>673549</v>
+        <v>676099</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>712403</v>
+        <v>714690</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7861789945287971</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7617819690324965</v>
+        <v>0.7646665998703721</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8057267950649927</v>
+        <v>0.8083130010241467</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2147</v>
@@ -2653,19 +2653,19 @@
         <v>1288913</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1265173</v>
+        <v>1264066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1313109</v>
+        <v>1312651</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8145790430515092</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7995752266469236</v>
+        <v>0.7988755841211991</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8298702264088891</v>
+        <v>0.8295810726043897</v>
       </c>
     </row>
     <row r="31">
